--- a/src/predicciones/holt_winters/producto_172.xlsx
+++ b/src/predicciones/holt_winters/producto_172.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>predicciones</t>
   </si>
   <si>
     <t>real</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -377,13 +386,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:C311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,739 +404,3412 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>44929</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4.006979173273081</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>44931</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>3.006211934881899</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>44932</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3.006031075897623</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>44934</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2.006128324663158</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" s="2">
+        <v>44935</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>1.006225601306538</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
+      <c r="A7" s="2">
+        <v>44937</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>3.006260980085623</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
+      <c r="A8" s="2">
+        <v>44938</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2.012589627680342</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
+      <c r="A9" s="2">
+        <v>44940</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>4.012349758783531</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
+      <c r="A10" s="2">
+        <v>44941</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>3.011582520392349</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
+      <c r="A11" s="2">
+        <v>44942</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>3.011401661408073</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
+      <c r="A12" s="2">
+        <v>44943</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2.011498910173609</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
+      <c r="A13" s="2">
+        <v>44944</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>1.011596186816988</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
+      <c r="A14" s="2">
+        <v>44945</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>3.011631565596073</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
+      <c r="A15" s="2">
+        <v>44947</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2.017960213190792</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
+      <c r="A16" s="2">
+        <v>44948</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>4.017720344293981</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
+      <c r="A17" s="2">
+        <v>44951</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>3.016953105902799</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
+      <c r="A18" s="2">
+        <v>44952</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>3.016772246918523</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
+      <c r="A19" s="2">
+        <v>44953</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2.016869495684059</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
+      <c r="A20" s="2">
+        <v>44954</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>1.016966772327438</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
+      <c r="A21" s="2">
+        <v>44955</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>3.017002151106524</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
+      <c r="A22" s="2">
+        <v>44956</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2.023330798701243</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
+      <c r="A23" s="2">
+        <v>44958</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>4.023090929804432</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
+      <c r="A24" s="2">
+        <v>44959</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>3.022323691413249</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
+      <c r="A25" s="2">
+        <v>44961</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>3.022142832428973</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
+      <c r="A26" s="2">
+        <v>44962</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2.022240081194509</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
+      <c r="A27" s="2">
+        <v>44964</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>1.022337357837888</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
+      <c r="A28" s="2">
+        <v>44965</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>3.022372736616974</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
+      <c r="A29" s="2">
+        <v>44966</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>2.028701384211693</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
+      <c r="A30" s="2">
+        <v>44967</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>4.028461515314882</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
+      <c r="A31" s="2">
+        <v>44968</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>3.027694276923699</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
+      <c r="A32" s="2">
+        <v>44969</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>3.027513417939423</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
+      <c r="A33" s="2">
+        <v>44970</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>2.02761066670496</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
+      <c r="A34" s="2">
+        <v>44972</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>1.027707943348339</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
+      <c r="A35" s="2">
+        <v>44973</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>3.027743322127424</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
+      <c r="A36" s="2">
+        <v>44974</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>2.034071969722143</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
+      <c r="A37" s="2">
+        <v>44975</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>4.033832100825332</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
+      <c r="A38" s="2">
+        <v>44977</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>3.033064862434149</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
+      <c r="A39" s="2">
+        <v>44978</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>3.032884003449874</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
+      <c r="A40" s="2">
+        <v>44982</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>2.03298125221541</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
+      <c r="A41" s="2">
+        <v>44983</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>1.033078528858789</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
+      <c r="A42" s="2">
+        <v>44984</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>3.033113907637874</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
+      <c r="A43" s="2">
+        <v>44986</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>2.039442555232593</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
+      <c r="A44" s="2">
+        <v>44988</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>4.039202686335782</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
+      <c r="A45" s="2">
+        <v>44989</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>3.038435447944599</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
+      <c r="A46" s="2">
+        <v>44990</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>3.038254588960324</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
+      <c r="A47" s="2">
+        <v>44991</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>2.03835183772586</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>46</v>
+      <c r="A48" s="2">
+        <v>44992</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>1.038449114369239</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
+      <c r="A49" s="2">
+        <v>44993</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>3.038484493148325</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
+      <c r="A50" s="2">
+        <v>44994</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>2.044813140743043</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
+      <c r="A51" s="2">
+        <v>44995</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>4.044573271846232</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>50</v>
+      <c r="A52" s="2">
+        <v>44998</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>3.04380603345505</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>51</v>
+      <c r="A53" s="2">
+        <v>44999</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>3.043625174470774</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1">
-        <v>52</v>
+      <c r="A54" s="2">
+        <v>45000</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>2.04372242323631</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1">
-        <v>53</v>
+      <c r="A55" s="2">
+        <v>45001</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>1.043819699879689</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1">
-        <v>54</v>
+      <c r="A56" s="2">
+        <v>45002</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>3.043855078658775</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1">
-        <v>55</v>
+      <c r="A57" s="2">
+        <v>45003</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>2.050183726253493</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1">
-        <v>56</v>
+      <c r="A58" s="2">
+        <v>45004</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>4.049943857356682</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="1">
-        <v>57</v>
+      <c r="A59" s="2">
+        <v>45005</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>3.0491766189655</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="1">
-        <v>58</v>
+      <c r="A60" s="2">
+        <v>45008</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>3.048995759981225</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="1">
-        <v>59</v>
+      <c r="A61" s="2">
+        <v>45009</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>2.049093008746761</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="1">
-        <v>60</v>
+      <c r="A62" s="2">
+        <v>45011</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>1.04919028539014</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="1">
-        <v>61</v>
+      <c r="A63" s="2">
+        <v>45012</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>3.049225664169225</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="1">
-        <v>62</v>
+      <c r="A64" s="2">
+        <v>45013</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>2.055554311763944</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="1">
-        <v>63</v>
+      <c r="A65" s="2">
+        <v>45014</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>4.055314442867132</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="1">
-        <v>64</v>
+      <c r="A66" s="2">
+        <v>45015</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>3.05454720447595</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="1">
-        <v>65</v>
+      <c r="A67" s="2">
+        <v>45017</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>3.054366345491675</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="1">
-        <v>66</v>
+      <c r="A68" s="2">
+        <v>45019</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>2.054463594257211</v>
       </c>
       <c r="C68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="2">
+        <v>45020</v>
+      </c>
+      <c r="B69">
+        <v>1.05456087090059</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="2">
+        <v>45021</v>
+      </c>
+      <c r="B70">
+        <v>3.054596249679675</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="2">
+        <v>45026</v>
+      </c>
+      <c r="B71">
+        <v>2.060924897274394</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="2">
+        <v>45027</v>
+      </c>
+      <c r="B72">
+        <v>4.060685028377583</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="2">
+        <v>45028</v>
+      </c>
+      <c r="B73">
+        <v>3.059917789986401</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="2">
+        <v>45029</v>
+      </c>
+      <c r="B74">
+        <v>3.059736931002125</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="2">
+        <v>45030</v>
+      </c>
+      <c r="B75">
+        <v>2.059834179767661</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="2">
+        <v>45031</v>
+      </c>
+      <c r="B76">
+        <v>1.05993145641104</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="2">
+        <v>45032</v>
+      </c>
+      <c r="B77">
+        <v>3.059966835190126</v>
+      </c>
+      <c r="C77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="2">
+        <v>45033</v>
+      </c>
+      <c r="B78">
+        <v>2.066295482784844</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="2">
+        <v>45035</v>
+      </c>
+      <c r="B79">
+        <v>4.066055613888033</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="2">
+        <v>45036</v>
+      </c>
+      <c r="B80">
+        <v>3.065288375496851</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="2">
+        <v>45037</v>
+      </c>
+      <c r="B81">
+        <v>3.065107516512575</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="2">
+        <v>45039</v>
+      </c>
+      <c r="B82">
+        <v>2.065204765278111</v>
+      </c>
+      <c r="C82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="2">
+        <v>45040</v>
+      </c>
+      <c r="B83">
+        <v>1.06530204192149</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="2">
+        <v>45041</v>
+      </c>
+      <c r="B84">
+        <v>3.065337420700576</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="2">
+        <v>45042</v>
+      </c>
+      <c r="B85">
+        <v>2.071666068295295</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="2">
+        <v>45043</v>
+      </c>
+      <c r="B86">
+        <v>4.071426199398483</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="2">
+        <v>45045</v>
+      </c>
+      <c r="B87">
+        <v>3.070658961007301</v>
+      </c>
+      <c r="C87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="2">
+        <v>45048</v>
+      </c>
+      <c r="B88">
+        <v>3.070478102023026</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="2">
+        <v>45050</v>
+      </c>
+      <c r="B89">
+        <v>2.070575350788562</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="2">
+        <v>45051</v>
+      </c>
+      <c r="B90">
+        <v>1.070672627431941</v>
+      </c>
+      <c r="C90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2">
+        <v>45052</v>
+      </c>
+      <c r="B91">
+        <v>3.070708006211026</v>
+      </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2">
+        <v>45053</v>
+      </c>
+      <c r="B92">
+        <v>2.077036653805745</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="2">
+        <v>45054</v>
+      </c>
+      <c r="B93">
+        <v>4.076796784908933</v>
+      </c>
+      <c r="C93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="2">
+        <v>45056</v>
+      </c>
+      <c r="B94">
+        <v>3.076029546517751</v>
+      </c>
+      <c r="C94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="2">
+        <v>45057</v>
+      </c>
+      <c r="B95">
+        <v>3.075848687533476</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="2">
+        <v>45058</v>
+      </c>
+      <c r="B96">
+        <v>2.075945936299012</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="2">
+        <v>45059</v>
+      </c>
+      <c r="B97">
+        <v>1.076043212942391</v>
+      </c>
+      <c r="C97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="2">
+        <v>45062</v>
+      </c>
+      <c r="B98">
+        <v>3.076078591721477</v>
+      </c>
+      <c r="C98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="2">
+        <v>45063</v>
+      </c>
+      <c r="B99">
+        <v>2.082407239316195</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="2">
+        <v>45064</v>
+      </c>
+      <c r="B100">
+        <v>4.082167370419384</v>
+      </c>
+      <c r="C100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="2">
+        <v>45065</v>
+      </c>
+      <c r="B101">
+        <v>3.081400132028202</v>
+      </c>
+      <c r="C101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="2">
+        <v>45068</v>
+      </c>
+      <c r="B102">
+        <v>3.081219273043926</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="2">
+        <v>45069</v>
+      </c>
+      <c r="B103">
+        <v>2.081316521809462</v>
+      </c>
+      <c r="C103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="2">
+        <v>45070</v>
+      </c>
+      <c r="B104">
+        <v>1.081413798452841</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="2">
+        <v>45071</v>
+      </c>
+      <c r="B105">
+        <v>3.081449177231927</v>
+      </c>
+      <c r="C105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="2">
+        <v>45072</v>
+      </c>
+      <c r="B106">
+        <v>2.087777824826645</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="2">
+        <v>45073</v>
+      </c>
+      <c r="B107">
+        <v>4.087537955929834</v>
+      </c>
+      <c r="C107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="2">
+        <v>45074</v>
+      </c>
+      <c r="B108">
+        <v>3.086770717538652</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="2">
+        <v>45078</v>
+      </c>
+      <c r="B109">
+        <v>3.086589858554376</v>
+      </c>
+      <c r="C109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="2">
+        <v>45079</v>
+      </c>
+      <c r="B110">
+        <v>2.086687107319912</v>
+      </c>
+      <c r="C110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="2">
+        <v>45081</v>
+      </c>
+      <c r="B111">
+        <v>1.086784383963292</v>
+      </c>
+      <c r="C111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="2">
+        <v>45082</v>
+      </c>
+      <c r="B112">
+        <v>3.086819762742377</v>
+      </c>
+      <c r="C112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="2">
+        <v>45084</v>
+      </c>
+      <c r="B113">
+        <v>2.093148410337096</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="2">
+        <v>45085</v>
+      </c>
+      <c r="B114">
+        <v>4.092908541440284</v>
+      </c>
+      <c r="C114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="2">
+        <v>45086</v>
+      </c>
+      <c r="B115">
+        <v>3.092141303049102</v>
+      </c>
+      <c r="C115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="2">
+        <v>45087</v>
+      </c>
+      <c r="B116">
+        <v>3.091960444064827</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="2">
+        <v>45089</v>
+      </c>
+      <c r="B117">
+        <v>2.092057692830362</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="2">
+        <v>45090</v>
+      </c>
+      <c r="B118">
+        <v>1.092154969473742</v>
+      </c>
+      <c r="C118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="2">
+        <v>45091</v>
+      </c>
+      <c r="B119">
+        <v>3.092190348252827</v>
+      </c>
+      <c r="C119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="2">
+        <v>45092</v>
+      </c>
+      <c r="B120">
+        <v>2.098518995847546</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="2">
+        <v>45093</v>
+      </c>
+      <c r="B121">
+        <v>4.098279126950734</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="2">
+        <v>45094</v>
+      </c>
+      <c r="B122">
+        <v>3.097511888559552</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="2">
+        <v>45095</v>
+      </c>
+      <c r="B123">
+        <v>3.097331029575277</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="2">
+        <v>45096</v>
+      </c>
+      <c r="B124">
+        <v>2.097428278340813</v>
+      </c>
+      <c r="C124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="2">
+        <v>45097</v>
+      </c>
+      <c r="B125">
+        <v>1.097525554984192</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="2">
+        <v>45099</v>
+      </c>
+      <c r="B126">
+        <v>3.097560933763277</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="2">
+        <v>45100</v>
+      </c>
+      <c r="B127">
+        <v>2.103889581357996</v>
+      </c>
+      <c r="C127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="2">
+        <v>45101</v>
+      </c>
+      <c r="B128">
+        <v>4.103649712461185</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="2">
+        <v>45102</v>
+      </c>
+      <c r="B129">
+        <v>3.102882474070003</v>
+      </c>
+      <c r="C129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="2">
+        <v>45106</v>
+      </c>
+      <c r="B130">
+        <v>3.102701615085727</v>
+      </c>
+      <c r="C130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="2">
+        <v>45108</v>
+      </c>
+      <c r="B131">
+        <v>2.102798863851263</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="2">
+        <v>45109</v>
+      </c>
+      <c r="B132">
+        <v>1.102896140494642</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="2">
+        <v>45110</v>
+      </c>
+      <c r="B133">
+        <v>3.102931519273727</v>
+      </c>
+      <c r="C133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="2">
+        <v>45111</v>
+      </c>
+      <c r="B134">
+        <v>2.109260166868446</v>
+      </c>
+      <c r="C134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="2">
+        <v>45116</v>
+      </c>
+      <c r="B135">
+        <v>4.109020297971635</v>
+      </c>
+      <c r="C135">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="2">
+        <v>45117</v>
+      </c>
+      <c r="B136">
+        <v>3.108253059580453</v>
+      </c>
+      <c r="C136">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="2">
+        <v>45118</v>
+      </c>
+      <c r="B137">
+        <v>3.108072200596177</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="2">
+        <v>45119</v>
+      </c>
+      <c r="B138">
+        <v>2.108169449361713</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="2">
+        <v>45120</v>
+      </c>
+      <c r="B139">
+        <v>1.108266726005092</v>
+      </c>
+      <c r="C139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="2">
+        <v>45121</v>
+      </c>
+      <c r="B140">
+        <v>3.108302104784178</v>
+      </c>
+      <c r="C140">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="2">
+        <v>45122</v>
+      </c>
+      <c r="B141">
+        <v>2.114630752378897</v>
+      </c>
+      <c r="C141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="2">
+        <v>45125</v>
+      </c>
+      <c r="B142">
+        <v>4.114390883482085</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="2">
+        <v>45126</v>
+      </c>
+      <c r="B143">
+        <v>3.113623645090903</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="2">
+        <v>45127</v>
+      </c>
+      <c r="B144">
+        <v>3.113442786106627</v>
+      </c>
+      <c r="C144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="2">
+        <v>45128</v>
+      </c>
+      <c r="B145">
+        <v>2.113540034872163</v>
+      </c>
+      <c r="C145">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="2">
+        <v>45129</v>
+      </c>
+      <c r="B146">
+        <v>1.113637311515542</v>
+      </c>
+      <c r="C146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="2">
+        <v>45130</v>
+      </c>
+      <c r="B147">
+        <v>3.113672690294628</v>
+      </c>
+      <c r="C147">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B148">
+        <v>2.120001337889347</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="2">
+        <v>45132</v>
+      </c>
+      <c r="B149">
+        <v>4.119761468992536</v>
+      </c>
+      <c r="C149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="2">
+        <v>45133</v>
+      </c>
+      <c r="B150">
+        <v>3.118994230601354</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="2">
+        <v>45134</v>
+      </c>
+      <c r="B151">
+        <v>3.118813371617078</v>
+      </c>
+      <c r="C151">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="2">
+        <v>45135</v>
+      </c>
+      <c r="B152">
+        <v>2.118910620382614</v>
+      </c>
+      <c r="C152">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="2">
+        <v>45136</v>
+      </c>
+      <c r="B153">
+        <v>1.119007897025993</v>
+      </c>
+      <c r="C153">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="2">
+        <v>45137</v>
+      </c>
+      <c r="B154">
+        <v>3.119043275805078</v>
+      </c>
+      <c r="C154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="2">
+        <v>45139</v>
+      </c>
+      <c r="B155">
+        <v>2.125371923399797</v>
+      </c>
+      <c r="C155">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="2">
+        <v>45140</v>
+      </c>
+      <c r="B156">
+        <v>4.125132054502986</v>
+      </c>
+      <c r="C156">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="2">
+        <v>45141</v>
+      </c>
+      <c r="B157">
+        <v>3.124364816111804</v>
+      </c>
+      <c r="C157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="2">
+        <v>45142</v>
+      </c>
+      <c r="B158">
+        <v>3.124183957127528</v>
+      </c>
+      <c r="C158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="2">
+        <v>45143</v>
+      </c>
+      <c r="B159">
+        <v>2.124281205893064</v>
+      </c>
+      <c r="C159">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="2">
+        <v>45144</v>
+      </c>
+      <c r="B160">
+        <v>1.124378482536443</v>
+      </c>
+      <c r="C160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="2">
+        <v>45147</v>
+      </c>
+      <c r="B161">
+        <v>3.124413861315529</v>
+      </c>
+      <c r="C161">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="2">
+        <v>45148</v>
+      </c>
+      <c r="B162">
+        <v>2.130742508910247</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="2">
+        <v>45150</v>
+      </c>
+      <c r="B163">
+        <v>4.130502640013436</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="2">
+        <v>45151</v>
+      </c>
+      <c r="B164">
+        <v>3.129735401622254</v>
+      </c>
+      <c r="C164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="2">
+        <v>45155</v>
+      </c>
+      <c r="B165">
+        <v>3.129554542637978</v>
+      </c>
+      <c r="C165">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="2">
+        <v>45156</v>
+      </c>
+      <c r="B166">
+        <v>2.129651791403514</v>
+      </c>
+      <c r="C166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="2">
+        <v>45157</v>
+      </c>
+      <c r="B167">
+        <v>1.129749068046893</v>
+      </c>
+      <c r="C167">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="2">
+        <v>45158</v>
+      </c>
+      <c r="B168">
+        <v>3.129784446825979</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="2">
+        <v>45159</v>
+      </c>
+      <c r="B169">
+        <v>2.136113094420697</v>
+      </c>
+      <c r="C169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="2">
+        <v>45160</v>
+      </c>
+      <c r="B170">
+        <v>4.135873225523886</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="2">
+        <v>45161</v>
+      </c>
+      <c r="B171">
+        <v>3.135105987132704</v>
+      </c>
+      <c r="C171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="2">
+        <v>45162</v>
+      </c>
+      <c r="B172">
+        <v>3.134925128148428</v>
+      </c>
+      <c r="C172">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="2">
+        <v>45163</v>
+      </c>
+      <c r="B173">
+        <v>2.135022376913964</v>
+      </c>
+      <c r="C173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="2">
+        <v>45164</v>
+      </c>
+      <c r="B174">
+        <v>1.135119653557344</v>
+      </c>
+      <c r="C174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="2">
+        <v>45165</v>
+      </c>
+      <c r="B175">
+        <v>3.135155032336429</v>
+      </c>
+      <c r="C175">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="2">
+        <v>45167</v>
+      </c>
+      <c r="B176">
+        <v>2.141483679931148</v>
+      </c>
+      <c r="C176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="2">
+        <v>45168</v>
+      </c>
+      <c r="B177">
+        <v>4.141243811034337</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="2">
+        <v>45170</v>
+      </c>
+      <c r="B178">
+        <v>3.140476572643155</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="2">
+        <v>45171</v>
+      </c>
+      <c r="B179">
+        <v>3.140295713658879</v>
+      </c>
+      <c r="C179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="2">
+        <v>45172</v>
+      </c>
+      <c r="B180">
+        <v>2.140392962424415</v>
+      </c>
+      <c r="C180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="2">
+        <v>45173</v>
+      </c>
+      <c r="B181">
+        <v>1.140490239067794</v>
+      </c>
+      <c r="C181">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="2">
+        <v>45174</v>
+      </c>
+      <c r="B182">
+        <v>3.140525617846879</v>
+      </c>
+      <c r="C182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="2">
+        <v>45176</v>
+      </c>
+      <c r="B183">
+        <v>2.146854265441598</v>
+      </c>
+      <c r="C183">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="2">
+        <v>45177</v>
+      </c>
+      <c r="B184">
+        <v>4.146614396544787</v>
+      </c>
+      <c r="C184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="2">
+        <v>45178</v>
+      </c>
+      <c r="B185">
+        <v>3.145847158153605</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B186">
+        <v>3.145666299169329</v>
+      </c>
+      <c r="C186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="2">
+        <v>45183</v>
+      </c>
+      <c r="B187">
+        <v>2.145763547934865</v>
+      </c>
+      <c r="C187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="2">
+        <v>45184</v>
+      </c>
+      <c r="B188">
+        <v>1.145860824578244</v>
+      </c>
+      <c r="C188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="2">
+        <v>45185</v>
+      </c>
+      <c r="B189">
+        <v>3.14589620335733</v>
+      </c>
+      <c r="C189">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="2">
+        <v>45191</v>
+      </c>
+      <c r="B190">
+        <v>2.152224850952048</v>
+      </c>
+      <c r="C190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="2">
+        <v>45192</v>
+      </c>
+      <c r="B191">
+        <v>4.151984982055237</v>
+      </c>
+      <c r="C191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="2">
+        <v>45193</v>
+      </c>
+      <c r="B192">
+        <v>3.151217743664055</v>
+      </c>
+      <c r="C192">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="2">
+        <v>45194</v>
+      </c>
+      <c r="B193">
+        <v>3.151036884679779</v>
+      </c>
+      <c r="C193">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="2">
+        <v>45195</v>
+      </c>
+      <c r="B194">
+        <v>2.151134133445315</v>
+      </c>
+      <c r="C194">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="2">
+        <v>45197</v>
+      </c>
+      <c r="B195">
+        <v>1.151231410088694</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="2">
+        <v>45198</v>
+      </c>
+      <c r="B196">
+        <v>3.15126678886778</v>
+      </c>
+      <c r="C196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="2">
+        <v>45200</v>
+      </c>
+      <c r="B197">
+        <v>2.157595436462498</v>
+      </c>
+      <c r="C197">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="2">
+        <v>45201</v>
+      </c>
+      <c r="B198">
+        <v>4.157355567565687</v>
+      </c>
+      <c r="C198">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="2">
+        <v>45202</v>
+      </c>
+      <c r="B199">
+        <v>3.156588329174505</v>
+      </c>
+      <c r="C199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="2">
+        <v>45203</v>
+      </c>
+      <c r="B200">
+        <v>3.15640747019023</v>
+      </c>
+      <c r="C200">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="2">
+        <v>45204</v>
+      </c>
+      <c r="B201">
+        <v>2.156504718955766</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="2">
+        <v>45207</v>
+      </c>
+      <c r="B202">
+        <v>1.156601995599145</v>
+      </c>
+      <c r="C202">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="2">
+        <v>45209</v>
+      </c>
+      <c r="B203">
+        <v>3.15663737437823</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="2">
+        <v>45211</v>
+      </c>
+      <c r="B204">
+        <v>2.162966021972949</v>
+      </c>
+      <c r="C204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="2">
+        <v>45212</v>
+      </c>
+      <c r="B205">
+        <v>4.162726153076138</v>
+      </c>
+      <c r="C205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="2">
+        <v>45213</v>
+      </c>
+      <c r="B206">
+        <v>3.161958914684956</v>
+      </c>
+      <c r="C206">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="2">
+        <v>45214</v>
+      </c>
+      <c r="B207">
+        <v>3.16177805570068</v>
+      </c>
+      <c r="C207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="2">
+        <v>45215</v>
+      </c>
+      <c r="B208">
+        <v>2.161875304466216</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="2">
+        <v>45217</v>
+      </c>
+      <c r="B209">
+        <v>1.161972581109595</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="2">
+        <v>45218</v>
+      </c>
+      <c r="B210">
+        <v>3.16200795988868</v>
+      </c>
+      <c r="C210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="2">
+        <v>45219</v>
+      </c>
+      <c r="B211">
+        <v>2.168336607483399</v>
+      </c>
+      <c r="C211">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="2">
+        <v>45220</v>
+      </c>
+      <c r="B212">
+        <v>4.168096738586588</v>
+      </c>
+      <c r="C212">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="2">
+        <v>45221</v>
+      </c>
+      <c r="B213">
+        <v>3.167329500195406</v>
+      </c>
+      <c r="C213">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="2">
+        <v>45222</v>
+      </c>
+      <c r="B214">
+        <v>3.16714864121113</v>
+      </c>
+      <c r="C214">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="2">
+        <v>45223</v>
+      </c>
+      <c r="B215">
+        <v>2.167245889976666</v>
+      </c>
+      <c r="C215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="2">
+        <v>45228</v>
+      </c>
+      <c r="B216">
+        <v>1.167343166620045</v>
+      </c>
+      <c r="C216">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="2">
+        <v>45229</v>
+      </c>
+      <c r="B217">
+        <v>3.167378545399131</v>
+      </c>
+      <c r="C217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="2">
+        <v>45233</v>
+      </c>
+      <c r="B218">
+        <v>2.173707192993849</v>
+      </c>
+      <c r="C218">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="2">
+        <v>45234</v>
+      </c>
+      <c r="B219">
+        <v>4.173467324097038</v>
+      </c>
+      <c r="C219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="2">
+        <v>45235</v>
+      </c>
+      <c r="B220">
+        <v>3.172700085705856</v>
+      </c>
+      <c r="C220">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="2">
+        <v>45237</v>
+      </c>
+      <c r="B221">
+        <v>3.17251922672158</v>
+      </c>
+      <c r="C221">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="2">
+        <v>45238</v>
+      </c>
+      <c r="B222">
+        <v>2.172616475487116</v>
+      </c>
+      <c r="C222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="2">
+        <v>45239</v>
+      </c>
+      <c r="B223">
+        <v>1.172713752130495</v>
+      </c>
+      <c r="C223">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="2">
+        <v>45241</v>
+      </c>
+      <c r="B224">
+        <v>3.172749130909581</v>
+      </c>
+      <c r="C224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="2">
+        <v>45242</v>
+      </c>
+      <c r="B225">
+        <v>2.1790777785043</v>
+      </c>
+      <c r="C225">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="2">
+        <v>45243</v>
+      </c>
+      <c r="B226">
+        <v>4.178837909607489</v>
+      </c>
+      <c r="C226">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="2">
+        <v>45244</v>
+      </c>
+      <c r="B227">
+        <v>3.178070671216306</v>
+      </c>
+      <c r="C227">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="2">
+        <v>45245</v>
+      </c>
+      <c r="B228">
+        <v>3.17788981223203</v>
+      </c>
+      <c r="C228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="2">
+        <v>45246</v>
+      </c>
+      <c r="B229">
+        <v>2.177987060997566</v>
+      </c>
+      <c r="C229">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="2">
+        <v>45247</v>
+      </c>
+      <c r="B230">
+        <v>1.178084337640946</v>
+      </c>
+      <c r="C230">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="2">
+        <v>45248</v>
+      </c>
+      <c r="B231">
+        <v>3.178119716420031</v>
+      </c>
+      <c r="C231">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="2">
+        <v>45249</v>
+      </c>
+      <c r="B232">
+        <v>2.18444836401475</v>
+      </c>
+      <c r="C232">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="2">
+        <v>45250</v>
+      </c>
+      <c r="B233">
+        <v>4.184208495117939</v>
+      </c>
+      <c r="C233">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="2">
+        <v>45251</v>
+      </c>
+      <c r="B234">
+        <v>3.183441256726756</v>
+      </c>
+      <c r="C234">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="2">
+        <v>45252</v>
+      </c>
+      <c r="B235">
+        <v>3.18326039774248</v>
+      </c>
+      <c r="C235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="2">
+        <v>45253</v>
+      </c>
+      <c r="B236">
+        <v>2.183357646508016</v>
+      </c>
+      <c r="C236">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="2">
+        <v>45254</v>
+      </c>
+      <c r="B237">
+        <v>1.183454923151396</v>
+      </c>
+      <c r="C237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="2">
+        <v>45255</v>
+      </c>
+      <c r="B238">
+        <v>3.183490301930481</v>
+      </c>
+      <c r="C238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="2">
+        <v>45256</v>
+      </c>
+      <c r="B239">
+        <v>2.1898189495252</v>
+      </c>
+      <c r="C239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B240">
+        <v>4.189579080628389</v>
+      </c>
+      <c r="C240">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="2">
+        <v>45258</v>
+      </c>
+      <c r="B241">
+        <v>3.188811842237206</v>
+      </c>
+      <c r="C241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="2">
+        <v>45261</v>
+      </c>
+      <c r="B242">
+        <v>3.188630983252931</v>
+      </c>
+      <c r="C242">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="2">
+        <v>45262</v>
+      </c>
+      <c r="B243">
+        <v>2.188728232018467</v>
+      </c>
+      <c r="C243">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="2">
+        <v>45263</v>
+      </c>
+      <c r="B244">
+        <v>1.188825508661846</v>
+      </c>
+      <c r="C244">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="2">
+        <v>45264</v>
+      </c>
+      <c r="B245">
+        <v>3.188860887440931</v>
+      </c>
+      <c r="C245">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="2">
+        <v>45265</v>
+      </c>
+      <c r="B246">
+        <v>2.19518953503565</v>
+      </c>
+      <c r="C246">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="2">
+        <v>45266</v>
+      </c>
+      <c r="B247">
+        <v>4.194949666138839</v>
+      </c>
+      <c r="C247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="2">
+        <v>45267</v>
+      </c>
+      <c r="B248">
+        <v>3.194182427747656</v>
+      </c>
+      <c r="C248">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="2">
+        <v>45269</v>
+      </c>
+      <c r="B249">
+        <v>3.194001568763381</v>
+      </c>
+      <c r="C249">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="2">
+        <v>45270</v>
+      </c>
+      <c r="B250">
+        <v>2.194098817528917</v>
+      </c>
+      <c r="C250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="2">
+        <v>45271</v>
+      </c>
+      <c r="B251">
+        <v>1.194196094172296</v>
+      </c>
+      <c r="C251">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="2">
+        <v>45272</v>
+      </c>
+      <c r="B252">
+        <v>3.194231472951382</v>
+      </c>
+      <c r="C252">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" s="2">
+        <v>45274</v>
+      </c>
+      <c r="B253">
+        <v>2.200560120546101</v>
+      </c>
+      <c r="C253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="2">
+        <v>45275</v>
+      </c>
+      <c r="B254">
+        <v>4.200320251649289</v>
+      </c>
+      <c r="C254">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" s="2">
+        <v>45276</v>
+      </c>
+      <c r="B255">
+        <v>3.199553013258107</v>
+      </c>
+      <c r="C255">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" s="2">
+        <v>45279</v>
+      </c>
+      <c r="B256">
+        <v>3.199372154273831</v>
+      </c>
+      <c r="C256">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" s="2">
+        <v>45280</v>
+      </c>
+      <c r="B257">
+        <v>2.199469403039367</v>
+      </c>
+      <c r="C257">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="2">
+        <v>45281</v>
+      </c>
+      <c r="B258">
+        <v>1.199566679682746</v>
+      </c>
+      <c r="C258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" s="2">
+        <v>45282</v>
+      </c>
+      <c r="B259">
+        <v>3.199602058461832</v>
+      </c>
+      <c r="C259">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="2">
+        <v>45283</v>
+      </c>
+      <c r="B260">
+        <v>2.205930706056551</v>
+      </c>
+      <c r="C260">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="2">
+        <v>45284</v>
+      </c>
+      <c r="B261">
+        <v>4.205690837159739</v>
+      </c>
+      <c r="C261">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="2">
+        <v>45287</v>
+      </c>
+      <c r="B262">
+        <v>3.204923598768557</v>
+      </c>
+      <c r="C262">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" s="2">
+        <v>45288</v>
+      </c>
+      <c r="B263">
+        <v>3.204742739784282</v>
+      </c>
+      <c r="C263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="2">
+        <v>45290</v>
+      </c>
+      <c r="B264">
+        <v>2.204839988549818</v>
+      </c>
+      <c r="C264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="2">
+        <v>45294</v>
+      </c>
+      <c r="B265">
+        <v>1.204937265193197</v>
+      </c>
+      <c r="C265">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="2">
+        <v>45295</v>
+      </c>
+      <c r="B266">
+        <v>3.204972643972282</v>
+      </c>
+      <c r="C266">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="2">
+        <v>45297</v>
+      </c>
+      <c r="B267">
+        <v>2.211301291567001</v>
+      </c>
+      <c r="C267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="2">
+        <v>45298</v>
+      </c>
+      <c r="B268">
+        <v>4.211061422670189</v>
+      </c>
+      <c r="C268">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="2">
+        <v>45299</v>
+      </c>
+      <c r="B269">
+        <v>3.210294184279007</v>
+      </c>
+      <c r="C269">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="2">
+        <v>45300</v>
+      </c>
+      <c r="B270">
+        <v>3.210113325294732</v>
+      </c>
+      <c r="C270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="2">
+        <v>45301</v>
+      </c>
+      <c r="B271">
+        <v>2.210210574060268</v>
+      </c>
+      <c r="C271">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="2">
+        <v>45302</v>
+      </c>
+      <c r="B272">
+        <v>1.210307850703647</v>
+      </c>
+      <c r="C272">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="2">
+        <v>45303</v>
+      </c>
+      <c r="B273">
+        <v>3.210343229482732</v>
+      </c>
+      <c r="C273">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="2">
+        <v>45305</v>
+      </c>
+      <c r="B274">
+        <v>2.216671877077451</v>
+      </c>
+      <c r="C274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="2">
+        <v>45306</v>
+      </c>
+      <c r="B275">
+        <v>4.216432008180639</v>
+      </c>
+      <c r="C275">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="2">
+        <v>45307</v>
+      </c>
+      <c r="B276">
+        <v>3.215664769789458</v>
+      </c>
+      <c r="C276">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="2">
+        <v>45308</v>
+      </c>
+      <c r="B277">
+        <v>3.215483910805182</v>
+      </c>
+      <c r="C277">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="2">
+        <v>45309</v>
+      </c>
+      <c r="B278">
+        <v>2.215581159570718</v>
+      </c>
+      <c r="C278">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" s="2">
+        <v>45310</v>
+      </c>
+      <c r="B279">
+        <v>1.215678436214097</v>
+      </c>
+      <c r="C279">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" s="2">
+        <v>45311</v>
+      </c>
+      <c r="B280">
+        <v>3.215713814993183</v>
+      </c>
+      <c r="C280">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" s="2">
+        <v>45313</v>
+      </c>
+      <c r="B281">
+        <v>2.222042462587901</v>
+      </c>
+      <c r="C281">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" s="2">
+        <v>45314</v>
+      </c>
+      <c r="B282">
+        <v>4.22180259369109</v>
+      </c>
+      <c r="C282">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" s="2">
+        <v>45316</v>
+      </c>
+      <c r="B283">
+        <v>3.221035355299908</v>
+      </c>
+      <c r="C283">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="2">
+        <v>45318</v>
+      </c>
+      <c r="B284">
+        <v>3.220854496315632</v>
+      </c>
+      <c r="C284">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="2">
+        <v>45320</v>
+      </c>
+      <c r="B285">
+        <v>2.220951745081168</v>
+      </c>
+      <c r="C285">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B286">
+        <v>1.221049021724547</v>
+      </c>
+      <c r="C286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B287">
+        <v>3.221084400503633</v>
+      </c>
+      <c r="C287">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" s="2">
+        <v>45325</v>
+      </c>
+      <c r="B288">
+        <v>2.227413048098352</v>
+      </c>
+      <c r="C288">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" s="2">
+        <v>45326</v>
+      </c>
+      <c r="B289">
+        <v>4.22717317920154</v>
+      </c>
+      <c r="C289">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="2">
+        <v>45327</v>
+      </c>
+      <c r="B290">
+        <v>3.226405940810358</v>
+      </c>
+      <c r="C290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" s="2">
+        <v>45328</v>
+      </c>
+      <c r="B291">
+        <v>3.226225081826083</v>
+      </c>
+      <c r="C291">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" s="2">
+        <v>45329</v>
+      </c>
+      <c r="B292">
+        <v>2.226322330591619</v>
+      </c>
+      <c r="C292">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" s="2">
+        <v>45330</v>
+      </c>
+      <c r="B293">
+        <v>1.226419607234998</v>
+      </c>
+      <c r="C293">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="2">
+        <v>45331</v>
+      </c>
+      <c r="B294">
+        <v>3.226454986014083</v>
+      </c>
+      <c r="C294">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" s="2">
+        <v>45332</v>
+      </c>
+      <c r="B295">
+        <v>2.232783633608802</v>
+      </c>
+      <c r="C295">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="2">
+        <v>45333</v>
+      </c>
+      <c r="B296">
+        <v>4.23254376471199</v>
+      </c>
+      <c r="C296">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="2">
+        <v>45334</v>
+      </c>
+      <c r="B297">
+        <v>3.231776526320808</v>
+      </c>
+      <c r="C297">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" s="2">
+        <v>45336</v>
+      </c>
+      <c r="B298">
+        <v>3.231595667336533</v>
+      </c>
+      <c r="C298">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" s="2">
+        <v>45337</v>
+      </c>
+      <c r="B299">
+        <v>2.231692916102069</v>
+      </c>
+      <c r="C299">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" s="2">
+        <v>45338</v>
+      </c>
+      <c r="B300">
+        <v>1.231790192745448</v>
+      </c>
+      <c r="C300">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" s="2">
+        <v>45339</v>
+      </c>
+      <c r="B301">
+        <v>3.231825571524533</v>
+      </c>
+      <c r="C301">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" s="2">
+        <v>45340</v>
+      </c>
+      <c r="B302">
+        <v>2.238154219119252</v>
+      </c>
+      <c r="C302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B303">
+        <v>4.237914350222441</v>
+      </c>
+      <c r="C303">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" s="2">
+        <v>45342</v>
+      </c>
+      <c r="B304">
+        <v>3.237147111831259</v>
+      </c>
+      <c r="C304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" s="2">
+        <v>45343</v>
+      </c>
+      <c r="B305">
+        <v>3.236966252846983</v>
+      </c>
+      <c r="C305">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" s="2">
+        <v>45344</v>
+      </c>
+      <c r="B306">
+        <v>2.237063501612519</v>
+      </c>
+      <c r="C306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" s="2">
+        <v>45345</v>
+      </c>
+      <c r="B307">
+        <v>1.237160778255898</v>
+      </c>
+      <c r="C307">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" s="2">
+        <v>45346</v>
+      </c>
+      <c r="B308">
+        <v>3.237196157034984</v>
+      </c>
+      <c r="C308">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" s="2">
+        <v>45347</v>
+      </c>
+      <c r="B309">
+        <v>2.243524804629702</v>
+      </c>
+      <c r="C309">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B310">
+        <v>4.243284935732891</v>
+      </c>
+      <c r="C310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" s="2">
+        <v>45349</v>
+      </c>
+      <c r="B311">
+        <v>3.242517697341709</v>
+      </c>
+      <c r="C311">
         <v>1</v>
       </c>
     </row>
